--- a/clientes_operadora_saude.xlsx
+++ b/clientes_operadora_saude.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leandro.figueira\Google Drive\IGTI\BIGDATA\modelos\Clusterizacao\Desafio\Base_desafio\Aula_pratica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b1a15dfe505acc8/Área de Trabalho/Portifolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_541AE58E1997BB96BF315C1EEE994AE02BD29920" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B00307EA-BDAC-439D-882D-95E1243FF16E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12030"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,19 +365,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -410,7 +412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -427,7 +429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -444,7 +446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -461,7 +463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -478,7 +480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -495,7 +497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -512,7 +514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -529,7 +531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -546,7 +548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -563,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -580,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -597,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -614,7 +616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -631,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -648,7 +650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -665,7 +667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -682,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -699,7 +701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -716,7 +718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -733,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -750,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -767,7 +769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -784,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -801,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -818,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -835,7 +837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -852,7 +854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -869,7 +871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -886,7 +888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -903,7 +905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -920,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -937,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -951,7 +953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -968,7 +970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -985,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1053,7 +1055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1070,7 +1072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1087,7 +1089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1152,7 +1154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1237,7 +1239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1254,7 +1256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1356,7 +1358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1390,7 +1392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1458,7 +1460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1492,7 +1494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1509,7 +1511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1526,7 +1528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1543,7 +1545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1560,7 +1562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1594,7 +1596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1611,7 +1613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1628,7 +1630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1645,7 +1647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1662,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1679,7 +1681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1696,7 +1698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1713,7 +1715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1747,7 +1749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1764,7 +1766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1798,7 +1800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1849,7 +1851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1880,7 +1882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1914,7 +1916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1931,7 +1933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1948,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1965,7 +1967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1982,7 +1984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1999,7 +2001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2016,7 +2018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2033,7 +2035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2050,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2084,7 +2086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2101,7 +2103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2118,7 +2120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2135,7 +2137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2203,7 +2205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2220,7 +2222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2271,7 +2273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2288,7 +2290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2305,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2322,7 +2324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2373,7 +2375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2390,7 +2392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2424,7 +2426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2458,7 +2460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2509,7 +2511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2543,7 +2545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2560,7 +2562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2577,7 +2579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2594,7 +2596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2611,7 +2613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2628,7 +2630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2645,7 +2647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2662,7 +2664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2696,7 +2698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2747,7 +2749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2764,7 +2766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2781,7 +2783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2815,7 +2817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2832,7 +2834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2849,7 +2851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2866,7 +2868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2883,7 +2885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2900,7 +2902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2917,7 +2919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2934,7 +2936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2951,7 +2953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -2968,7 +2970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3002,7 +3004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3019,7 +3021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3036,7 +3038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3053,7 +3055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3070,7 +3072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3087,7 +3089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3121,7 +3123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3138,7 +3140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3155,7 +3157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3172,7 +3174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3189,7 +3191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3206,7 +3208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3223,7 +3225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3257,7 +3259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3308,7 +3310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3325,7 +3327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3342,7 +3344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3359,7 +3361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3376,7 +3378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3393,7 +3395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3410,7 +3412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3427,7 +3429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3444,7 +3446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3495,7 +3497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3512,7 +3514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3529,7 +3531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3546,7 +3548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3580,7 +3582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3597,7 +3599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3614,7 +3616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3631,7 +3633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3648,7 +3650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3665,7 +3667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3682,7 +3684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -3716,7 +3718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -3733,7 +3735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -3750,7 +3752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -3767,7 +3769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3801,7 +3803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3818,7 +3820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3835,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3852,7 +3854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3869,7 +3871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3886,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3903,7 +3905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3920,7 +3922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3937,7 +3939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3954,7 +3956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -3988,7 +3990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -4022,7 +4024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -4039,7 +4041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -4056,7 +4058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -4073,7 +4075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -4090,7 +4092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -4107,7 +4109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -4124,7 +4126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -4141,7 +4143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -4158,7 +4160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -4192,7 +4194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -4210,7 +4212,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E226"/>
+  <autoFilter ref="A1:E226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>